--- a/public/excelTemplate/ЕУК-T1.xlsx
+++ b/public/excelTemplate/ЕУК-T1.xlsx
@@ -1,77 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luka Rakic\Desktop\EUK\euk-frontend\public\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusan.pantelic\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFB5E09A-42F3-43AD-8890-9AFCD4E820FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">ТАБЕЛА T1 -ПРЕГЛЕД УМАЊЕЊА ЕНЕРГЕТСКИ УГРОЖЕНОГ  КУПАЦА </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подаци о снабдевачу:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                             Подаци о лок. самоуправи                                                                                                                                                                                                                                                                                                                                 Колоне од B-K сагласно члану 19. Уредбе о енергетски угроженом купцу попуњава орган јединице локалне самоуправе </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подаци о снабдевачу                                                                                                                          Сагласно члану 22. Уредбе колоне од L-O  попуњава снабдевач ел. енергијом/природним гасом/топлотнoм енергијом </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Презиме</t>
+  </si>
+  <si>
+    <t>Име</t>
+  </si>
+  <si>
+    <t>ЈМБГ</t>
+  </si>
+  <si>
+    <t>ПТТ број</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>Улица и број</t>
   </si>
   <si>
     <t>Ред. број</t>
   </si>
   <si>
-    <t>Име</t>
-  </si>
-  <si>
-    <t>Презиме</t>
-  </si>
-  <si>
-    <t>ЈМБГ</t>
-  </si>
-  <si>
-    <t>ПТТ број</t>
+    <t>Датум издавања рачуна</t>
+  </si>
+  <si>
+    <t>Број рачуна</t>
   </si>
   <si>
     <t>Град/Општина</t>
   </si>
   <si>
-    <t>Место</t>
-  </si>
-  <si>
-    <t>Улица и број</t>
-  </si>
-  <si>
-    <t>Број чланова  домаћинства</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основ стицања статуса ( МП, НСП, ДД, УДТНП) </t>
+    <t>М.П.</t>
   </si>
   <si>
     <t xml:space="preserve">ЕД број/број мерног 
@@ -81,32 +62,35 @@
     <t xml:space="preserve">Потрошња у kWh/потрошња у kWh/загревана површина у m2 </t>
   </si>
   <si>
-    <t>Износ умањења са ПДВ</t>
-  </si>
-  <si>
-    <t>Број рачуна</t>
-  </si>
-  <si>
-    <t>Датум издавања рачуна</t>
-  </si>
-  <si>
-    <t>М.П.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Потпис одговорног лица у органу јединице локалне самоуправе </t>
   </si>
   <si>
-    <t>в.д.заменик начелника Градске управе Града Београдa –
-  секретар Секретаријата за социјалну заштиту
- ___________________________
-     Петар Јорданов</t>
+    <t xml:space="preserve">                                                                                                                                                             Подаци о лок. самоуправи                                                                                                                                                                                                                                                                                                                                 Колоне од B-K сагласно члану 19. Уредбе о енергетски угроженом купцу попуњава орган јединице локалне самоуправе </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подаци о снабдевачу                                                                                                                          Сагласно члану 22. Уредбе колоне од L-O  попуњава снабдевач ел. енергијом/природним гасом/топлотнoм енергијом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подаци о снабдевачу:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАБЕЛА T1 -ПРЕГЛЕД УМАЊЕЊА ЕНЕРГЕТСКИ УГРОЖЕНИХ  КУПАЦА </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Број чланова  домаћинства/висина умањења </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Износ умањења са  ПДВ-ом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основ стицања статуса ( МП, НСП, УНСП, ДД, УДТНП) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,27 +121,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,16 +263,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -321,6 +286,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -330,246 +298,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalan" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -583,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -623,9 +422,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,7 +494,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -868,254 +667,630 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:P19"/>
+  <dimension ref="A3:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="5" customWidth="1"/>
     <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33" t="s">
+      <c r="E8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" s="27" customFormat="1" ht="61.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="F8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="H8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="I8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="19" t="s">
+    </row>
+    <row r="9" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="26" t="s">
+      <c r="C36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="19" spans="4:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D17:G17"/>
+  <mergeCells count="20">
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="L7:O7"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1854"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="2284"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2315"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2316"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2366"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2210"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2211"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2214"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="1" priority="60729" stopIfTrue="1">
-      <formula>AND(COUNTIF($K$10:$K$62699, K9)+COUNTIF($K$1:$K$9, K9)&gt;1,NOT(ISBLANK(K9)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="60730" stopIfTrue="1">
-      <formula>AND(COUNTIF($K$1:$K$9, K9)+COUNTIF($K$10:$K$62699, K9)&gt;1,NOT(ISBLANK(K9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>